--- a/image/careteam.xlsx
+++ b/image/careteam.xlsx
@@ -854,45 +854,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.9375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.28125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="56.93359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="57.40625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="121.08984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.1953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="122.125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="47.66015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="27.0625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="49.1171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="152.4140625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="27.3671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="49.05859375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="148.8046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/careteam.xlsx
+++ b/image/careteam.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="225">
   <si>
     <t>Path</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -424,10 +424,6 @@
     <t>CareTeam.name</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Name of the team, such as crisis assessment team</t>
   </si>
   <si>
@@ -579,7 +575,7 @@
     <t>Indicates specific responsibility of an individual within the care team, such as "Primary care physician", "Trained social worker counselor", "Caregiver", etc.</t>
   </si>
   <si>
-    <t>Roles may sometimes be inferred by type of Practitioner.  These are relationships that hold only within the context of the care team.  General relationships should be handled as properties of the Patient resource directly.</t>
+    <t>Roles may sometimes be inferred by type of Practitioner.  These are relationships that hold only within the context of the care team.  General relationships should be handled as properties of the Patient resource directly.  If a participant has multiple roles within the team, then there should be multiple participants.</t>
   </si>
   <si>
     <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
@@ -636,13 +632,23 @@
     <t>Practitioners can be associated with multiple organizations.  This element indicates which organization they were acting on behalf of.</t>
   </si>
   <si>
-    <t>CareTeam.participant.period</t>
-  </si>
-  <si>
-    <t>Time period of participant</t>
-  </si>
-  <si>
-    <t>Indicates when the specific member or organization did (or is intended to) come into effect and end.</t>
+    <t>CareTeam.participant.coverage[x]</t>
+  </si>
+  <si>
+    <t>Period
+Timing</t>
+  </si>
+  <si>
+    <t>When the member is generally available within this care team</t>
+  </si>
+  <si>
+    <t>When the member is generally available within this care team.</t>
+  </si>
+  <si>
+    <t>This is populated while creating / managing the CareTeam to ensure there is coverage when servicing CarePlan activities from the Schedule.</t>
+  </si>
+  <si>
+    <t>To manage members who share the same role, but with different timing.  For example, two physical therapists where one is available Monday through Friday whereas the other is available on the weekend.</t>
   </si>
   <si>
     <t>CareTeam.reasonCode</t>
@@ -854,45 +860,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.28125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.9375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="57.40625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="56.93359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="122.125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="47.66015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="121.08984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.1953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="27.3671875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="49.05859375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="148.8046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="27.0625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="49.1171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="152.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2373,16 +2379,16 @@
         <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2450,7 +2456,7 @@
         <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -2461,11 +2467,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2484,17 +2490,17 @@
         <v>50</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -2543,7 +2549,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2564,7 +2570,7 @@
         <v>40</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>40</v>
@@ -2572,7 +2578,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2595,16 +2601,16 @@
         <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2654,7 +2660,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2675,7 +2681,7 @@
         <v>40</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -2683,7 +2689,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2706,17 +2712,17 @@
         <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -2765,7 +2771,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -2786,7 +2792,7 @@
         <v>40</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -2794,7 +2800,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2817,13 +2823,13 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2874,7 +2880,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -2883,27 +2889,27 @@
         <v>42</v>
       </c>
       <c r="AH18" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AI18" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AI18" t="s" s="2">
+      <c r="AJ18" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AJ18" t="s" s="2">
+      <c r="AK18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2926,13 +2932,13 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2983,7 +2989,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -2998,7 +3004,7 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>40</v>
@@ -3012,7 +3018,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3041,7 +3047,7 @@
         <v>95</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>97</v>
@@ -3094,7 +3100,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3109,7 +3115,7 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>40</v>
@@ -3123,11 +3129,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3149,10 +3155,10 @@
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>97</v>
@@ -3207,7 +3213,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3236,7 +3242,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3247,7 +3253,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
@@ -3262,13 +3268,13 @@
         <v>122</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3297,57 +3303,57 @@
         <v>127</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
+      <c r="AK22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3370,16 +3376,16 @@
         <v>50</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3429,7 +3435,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3444,21 +3450,21 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AK23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>192</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3481,17 +3487,17 @@
         <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -3540,7 +3546,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3569,7 +3575,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3592,7 +3598,7 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>199</v>
@@ -3600,8 +3606,12 @@
       <c r="L25" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="M25" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
       </c>
@@ -3649,7 +3659,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3678,7 +3688,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3704,10 +3714,10 @@
         <v>122</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3737,10 +3747,10 @@
         <v>127</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -3758,7 +3768,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3779,7 +3789,7 @@
         <v>40</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
@@ -3787,7 +3797,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3810,13 +3820,13 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3867,7 +3877,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -3888,7 +3898,7 @@
         <v>40</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
@@ -3896,7 +3906,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3919,17 +3929,17 @@
         <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -3978,7 +3988,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4007,7 +4017,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4030,16 +4040,16 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4089,7 +4099,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4118,7 +4128,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4141,13 +4151,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4198,7 +4208,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
